--- a/tests/files/PandasNA.ipynb.xlsx
+++ b/tests/files/PandasNA.ipynb.xlsx
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +68,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,10 +102,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -426,12 +435,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7">
@@ -443,12 +453,13 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10">
@@ -456,7 +467,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11">
@@ -465,7 +476,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12">
@@ -473,7 +484,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13">
